--- a/salesdata_powerBI.xlsx
+++ b/salesdata_powerBI.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AptechLap3\Desktop\Installer_Analytics\Dash_Board_new\Dash_Board\Dash_Board\Visa_Day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DDFB22-C833-4B2C-A45C-D8C8D5951D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F81721D-7BFC-4F10-A313-B2D773D71954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C7639064-2574-4887-8056-C2CB0688E1CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="April">Sheet1!$G$2:$G$81</definedName>
@@ -24,13 +22,13 @@
     <definedName name="data">Sheet1!$A$1:$P$81</definedName>
     <definedName name="December">Sheet1!$O$2:$O$81</definedName>
     <definedName name="February">Sheet1!$E$2:$E$81</definedName>
-    <definedName name="ibm_Sales">Sheet4!$D$10:$D$23</definedName>
+    <definedName name="ibm_Sales">#REF!</definedName>
     <definedName name="January">Sheet1!$D$2:$D$81</definedName>
     <definedName name="July">Sheet1!$J$2:$J$81</definedName>
     <definedName name="June">Sheet1!$I$2:$I$81</definedName>
     <definedName name="March">Sheet1!$F$2:$F$81</definedName>
     <definedName name="May">Sheet1!$H$2:$H$81</definedName>
-    <definedName name="name">Sheet3!$C$3</definedName>
+    <definedName name="name">#REF!</definedName>
     <definedName name="November">Sheet1!$N$2:$N$81</definedName>
     <definedName name="October">Sheet1!$M$2:$M$81</definedName>
     <definedName name="product">Sheet1!$C$2:$C$81</definedName>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -216,140 +214,15 @@
   <si>
     <t>SECOND SMALLEST VALUE</t>
   </si>
-  <si>
-    <t xml:space="preserve">Sales person name </t>
-  </si>
-  <si>
-    <t>number of entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sales </t>
-  </si>
-  <si>
-    <t>Syntax:</t>
-  </si>
-  <si>
-    <t>=SUM(number1,number2,...)</t>
-  </si>
-  <si>
-    <t>=MIN(number1,number2,...)</t>
-  </si>
-  <si>
-    <t>=MAX(number1,number2,...)</t>
-  </si>
-  <si>
-    <t>=AVERAGE(number1,number2,...)</t>
-  </si>
-  <si>
-    <t>=COUNT(value1,value2,...)</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Aggregation</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>BikeRacks</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>BikeTyre</t>
-  </si>
-  <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
-    <t>WireOptical</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>Bikes</t>
-  </si>
-  <si>
-    <t>Locks</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>Tyres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTA </t>
-  </si>
-  <si>
-    <t>Bib-Shorts</t>
-  </si>
-  <si>
-    <t>2ndHighSale</t>
-  </si>
-  <si>
-    <t>2ndSMALL</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>COUNTBLANK</t>
-  </si>
-  <si>
-    <t>Jerseys</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>Bottom Brackets</t>
-  </si>
-  <si>
-    <t>Brakes</t>
-  </si>
-  <si>
-    <t>Handlebars</t>
-  </si>
-  <si>
-    <t>Countof Category</t>
-  </si>
-  <si>
-    <t>SUM  of Category</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,84 +274,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,57 +308,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -733,85 +491,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,217 +567,34 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
-    <cellStyle name="Accent4" xfId="4" builtinId="41"/>
-    <cellStyle name="Accent5" xfId="5" builtinId="45"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF66FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <font>
         <b/>
@@ -22880,91 +22382,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>655069</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>115737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324210</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>184031</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE99DFB-AF0A-463A-ACE2-D66B99A6DCCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5646169" y="5506887"/>
-          <a:ext cx="4631666" cy="868394"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>COUNTIF(B10:B23,F27)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>=SUMIF($B$10:$B$23,F27,$D$10:$D$23)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27487,10 +26904,10 @@
     </row>
     <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="9"/>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="55"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="10" t="s">
         <v>36</v>
       </c>
@@ -27814,95 +27231,95 @@
     <mergeCell ref="B82:C82"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A81">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Hea-2022">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="Hea-2022">
       <formula>NOT(ISERROR(SEARCH("Hea-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Cab-2022">
+    <cfRule type="containsText" dxfId="68" priority="2" operator="containsText" text="Cab-2022">
       <formula>NOT(ISERROR(SEARCH("Cab-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="USB-2022">
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="USB-2022">
       <formula>NOT(ISERROR(SEARCH("USB-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="CPU-2022">
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="CPU-2022">
       <formula>NOT(ISERROR(SEARCH("CPU-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Mou-2022">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Mou-2022">
       <formula>NOT(ISERROR(SEARCH("Mou-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Key-2022">
+    <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="Key-2022">
       <formula>NOT(ISERROR(SEARCH("Key-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Cha-2022">
+    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="Cha-2022">
       <formula>NOT(ISERROR(SEARCH("Cha-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Cal-2022">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="Cal-2022">
       <formula>NOT(ISERROR(SEARCH("Cal-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Mob-2022">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="Mob-2022">
       <formula>NOT(ISERROR(SEARCH("Mob-2022",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Lap-2022">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="Lap-2022">
       <formula>NOT(ISERROR(SEARCH("Lap-2022",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B81">
-    <cfRule type="containsText" dxfId="73" priority="54" operator="containsText" text="Jenny">
+    <cfRule type="containsText" dxfId="59" priority="54" operator="containsText" text="Jenny">
       <formula>NOT(ISERROR(SEARCH("Jenny",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="55" operator="containsText" text="Albertson, Kathy">
+    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="Albertson, Kathy">
       <formula>NOT(ISERROR(SEARCH("Albertson, Kathy",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="Flores, Tia">
+    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="Flores, Tia">
       <formula>NOT(ISERROR(SEARCH("Flores, Tia",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="48" operator="containsText" text="Ford, Victor">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Ford, Victor">
       <formula>NOT(ISERROR(SEARCH("Ford, Victor",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="50" operator="containsText" text="Davis, William">
+    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Davis, William">
       <formula>NOT(ISERROR(SEARCH("Davis, William",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="51" operator="containsText" text="Counts, Elizabeth">
+    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="Counts, Elizabeth">
       <formula>NOT(ISERROR(SEARCH("Counts, Elizabeth",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="52" operator="containsText" text="Brennan, Michael">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Brennan, Michael">
       <formula>NOT(ISERROR(SEARCH("Brennan, Michael",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="53" operator="containsText" text="Altman, Zoey">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Altman, Zoey">
       <formula>NOT(ISERROR(SEARCH("Altman, Zoey",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C81">
-    <cfRule type="containsText" dxfId="65" priority="37" operator="containsText" text="Headset">
+    <cfRule type="containsText" dxfId="51" priority="37" operator="containsText" text="Headset">
       <formula>NOT(ISERROR(SEARCH("Headset",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="42" operator="containsText" text="Mouse">
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Mouse">
       <formula>NOT(ISERROR(SEARCH("Mouse",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="44" operator="containsText" text="Charger">
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Charger">
       <formula>NOT(ISERROR(SEARCH("Charger",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="45" operator="containsText" text="Calculator">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Calculator">
       <formula>NOT(ISERROR(SEARCH("Calculator",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="46" operator="containsText" text="Mobile Phone">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Mobile Phone">
       <formula>NOT(ISERROR(SEARCH("Mobile Phone",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="47" operator="containsText" text="Laptop ">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Laptop ">
       <formula>NOT(ISERROR(SEARCH("Laptop ",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="36" operator="containsText" text="Laptop">
+    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="Laptop">
       <formula>NOT(ISERROR(SEARCH("Laptop",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="Keyboard">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Keyboard">
       <formula>NOT(ISERROR(SEARCH("Keyboard",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="38" operator="containsText" text="Cable">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Cable">
       <formula>NOT(ISERROR(SEARCH("Cable",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="39" operator="containsText" text="USB">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="USB">
       <formula>NOT(ISERROR(SEARCH("USB",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="40" operator="containsText" text="CPU">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="CPU">
       <formula>NOT(ISERROR(SEARCH("CPU",C2)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="41" operator="containsText" text="CPU">
@@ -27910,99 +27327,99 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D81">
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="lessThan">
       <formula>4500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="greaterThan">
       <formula>6500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E81">
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="lessThan">
       <formula>5390</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="greaterThan">
       <formula>8590</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F81">
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="lessThan">
       <formula>4145</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="greaterThan">
       <formula>9145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G81">
-    <cfRule type="cellIs" dxfId="48" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="greaterThan">
       <formula>7110</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="lessThan">
       <formula>5900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H81">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="lessThan">
       <formula>5250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="greaterThan">
       <formula>6465</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I81">
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="lessThan">
       <formula>4500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J81">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="lessThan">
       <formula>5410</formula>
     </cfRule>
-    <cfRule type="uniqueValues" dxfId="41" priority="23"/>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="greaterThan">
+    <cfRule type="uniqueValues" dxfId="27" priority="23"/>
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="greaterThan">
       <formula>8410</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K81">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="lessThan">
       <formula>5010</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="greaterThan">
       <formula>7500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L81">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="lessThan">
       <formula>5650</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="greaterThan">
       <formula>6250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M81">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
       <formula>5500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="greaterThan">
       <formula>6400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N81">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
       <formula>5700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="greaterThan">
       <formula>6900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O81">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
       <formula>5775</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
       <formula>7000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28015,617 +27432,619 @@
   <dimension ref="B4:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="28"/>
+    <col min="2" max="2" width="16.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="28" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="28"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="28">
         <f t="shared" ref="C5:C12" si="0">SUMIF(salesperson,B5,January)</f>
         <v>62950</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="28">
         <f t="shared" ref="D5:D12" si="1">SUMIF(salesperson,B5,February)</f>
         <v>80220</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="28">
         <f t="shared" ref="E5:E12" si="2">SUMIF(salesperson,B5,March)</f>
         <v>71550</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="28">
         <f t="shared" ref="F5:F12" si="3">SUMIF(salesperson,B5,April)</f>
         <v>60320</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="28">
         <f t="shared" ref="G5:G12" si="4">SUMIF(salesperson,B5,May)</f>
         <v>69980</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="28">
         <f t="shared" ref="H5:H12" si="5">SUMIF(salesperson,B5,June)</f>
         <v>60240</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="28">
         <f t="shared" ref="I5:I12" si="6">SUMIF(salesperson,B5,July)</f>
         <v>62750</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="28">
         <f t="shared" ref="J5:J12" si="7">SUMIF(salesperson,B5,August)</f>
         <v>77030</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="28">
         <f t="shared" ref="K5:K12" si="8">SUMIF(salesperson,B5,September)</f>
         <v>70450</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="28">
         <f t="shared" ref="L5:L12" si="9">SUMIF(salesperson,B5,October)</f>
         <v>56320</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="28">
         <f t="shared" ref="M5:M12" si="10">SUMIF(salesperson,B5,November)</f>
         <v>57700</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="28">
         <f t="shared" ref="N5:N12" si="11">SUMIF(salesperson,B5,December)</f>
         <v>67950</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="28">
         <f>SUM(C5:N5)</f>
         <v>797460</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>57675</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="28">
         <f t="shared" si="1"/>
         <v>76430</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="28">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="28">
         <f t="shared" si="3"/>
         <v>57530</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="28">
         <f t="shared" si="4"/>
         <v>55980</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="28">
         <f t="shared" si="5"/>
         <v>53060</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="28">
         <f t="shared" si="6"/>
         <v>52780</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="28">
         <f t="shared" si="7"/>
         <v>54580</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="28">
         <f t="shared" si="8"/>
         <v>57970</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="28">
         <f t="shared" si="9"/>
         <v>51040</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="28">
         <f t="shared" si="10"/>
         <v>54160</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="28">
         <f t="shared" si="11"/>
         <v>57230</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="28">
         <f t="shared" ref="O6:O12" si="12">SUM(C6:N6)</f>
         <v>688435</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>51800</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="28">
         <f t="shared" si="1"/>
         <v>79590</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="28">
         <f t="shared" si="2"/>
         <v>61380</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="28">
         <f t="shared" si="3"/>
         <v>58550</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="28">
         <f t="shared" si="4"/>
         <v>57100</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="28">
         <f t="shared" si="5"/>
         <v>54640</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="28">
         <f t="shared" si="6"/>
         <v>53460</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="28">
         <f t="shared" si="7"/>
         <v>55560</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="28">
         <f t="shared" si="8"/>
         <v>58590</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="28">
         <f t="shared" si="9"/>
         <v>50820</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="28">
         <f t="shared" si="10"/>
         <v>53590</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="28">
         <f t="shared" si="11"/>
         <v>58090</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="28">
         <f t="shared" si="12"/>
         <v>693170</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="28">
         <f t="shared" si="0"/>
         <v>59875</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="28">
         <f t="shared" si="1"/>
         <v>82750</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="28">
         <f t="shared" si="2"/>
         <v>62760</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="28">
         <f t="shared" si="3"/>
         <v>56220</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="28">
         <f t="shared" si="4"/>
         <v>57700</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="28">
         <f t="shared" si="5"/>
         <v>56220</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="28">
         <f t="shared" si="6"/>
         <v>54140</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="28">
         <f t="shared" si="7"/>
         <v>56540</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="28">
         <f t="shared" si="8"/>
         <v>56380</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="28">
         <f t="shared" si="9"/>
         <v>51860</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="28">
         <f t="shared" si="10"/>
         <v>54650</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="28">
         <f t="shared" si="11"/>
         <v>58950</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="28">
         <f t="shared" si="12"/>
         <v>708045</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="28">
         <f t="shared" si="0"/>
         <v>57225</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="28">
         <f t="shared" si="1"/>
         <v>73230</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="28">
         <f t="shared" si="2"/>
         <v>65040</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="28">
         <f t="shared" si="3"/>
         <v>55530</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="28">
         <f t="shared" si="4"/>
         <v>58360</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="28">
         <f t="shared" si="5"/>
         <v>51100</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="28">
         <f t="shared" si="6"/>
         <v>51780</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="28">
         <f t="shared" si="7"/>
         <v>59770</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="28">
         <f t="shared" si="8"/>
         <v>57550</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="28">
         <f t="shared" si="9"/>
         <v>50520</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="28">
         <f t="shared" si="10"/>
         <v>52920</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="28">
         <f t="shared" si="11"/>
         <v>58260</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="28">
         <f t="shared" si="12"/>
         <v>691285</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="28">
         <f t="shared" si="0"/>
         <v>50800</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="28">
         <f t="shared" si="1"/>
         <v>71010</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="28">
         <f t="shared" si="2"/>
         <v>58150</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="28">
         <f t="shared" si="3"/>
         <v>54440</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="28">
         <f t="shared" si="4"/>
         <v>51280</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="28">
         <f t="shared" si="5"/>
         <v>47570</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="28">
         <f t="shared" si="6"/>
         <v>50120</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="28">
         <f t="shared" si="7"/>
         <v>54650</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="28">
         <f t="shared" si="8"/>
         <v>52650</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="28">
         <f t="shared" si="9"/>
         <v>47500</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="28">
         <f t="shared" si="10"/>
         <v>51110</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="28">
         <f t="shared" si="11"/>
         <v>52770</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="28">
         <f t="shared" si="12"/>
         <v>642050</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="28">
         <f t="shared" si="0"/>
         <v>49800</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="28">
         <f t="shared" si="1"/>
         <v>76180</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="28">
         <f t="shared" si="2"/>
         <v>61180</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="28">
         <f t="shared" si="3"/>
         <v>54990</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="28">
         <f t="shared" si="4"/>
         <v>54090</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="28">
         <f t="shared" si="5"/>
         <v>45660</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="28">
         <f t="shared" si="6"/>
         <v>52780</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="28">
         <f t="shared" si="7"/>
         <v>52100</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="28">
         <f t="shared" si="8"/>
         <v>50380</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="28">
         <f t="shared" si="9"/>
         <v>50180</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="28">
         <f t="shared" si="10"/>
         <v>50030</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="28">
         <f t="shared" si="11"/>
         <v>56030</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="28">
         <f t="shared" si="12"/>
         <v>653400</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="28">
         <f t="shared" si="0"/>
         <v>58125</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="28">
         <f t="shared" si="1"/>
         <v>73020</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="28">
         <f t="shared" si="2"/>
         <v>62430</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="28">
         <f t="shared" si="3"/>
         <v>53950</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="28">
         <f t="shared" si="4"/>
         <v>54640</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="28">
         <f t="shared" si="5"/>
         <v>46430</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="28">
         <f t="shared" si="6"/>
         <v>53430</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="28">
         <f t="shared" si="7"/>
         <v>53010</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="28">
         <f t="shared" si="8"/>
         <v>50940</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="28">
         <f t="shared" si="9"/>
         <v>49290</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="28">
         <f t="shared" si="10"/>
         <v>50960</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="28">
         <f t="shared" si="11"/>
         <v>54580</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="28">
         <f t="shared" si="12"/>
         <v>660805</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
+      <c r="B43" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="Ford, Victor">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Ford, Victor">
       <formula>NOT(ISERROR(SEARCH("Ford, Victor",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="Flores, Tia">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Flores, Tia">
       <formula>NOT(ISERROR(SEARCH("Flores, Tia",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Davis, William">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Davis, William">
       <formula>NOT(ISERROR(SEARCH("Davis, William",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Counts, Elizabeth">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Counts, Elizabeth">
       <formula>NOT(ISERROR(SEARCH("Counts, Elizabeth",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Brennan, Michael">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Brennan, Michael">
       <formula>NOT(ISERROR(SEARCH("Brennan, Michael",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Altman, Zoey">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Altman, Zoey">
       <formula>NOT(ISERROR(SEARCH("Altman, Zoey",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Jenny">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Jenny">
       <formula>NOT(ISERROR(SEARCH("Jenny",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Albertson, Kathy">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Albertson, Kathy">
       <formula>NOT(ISERROR(SEARCH("Albertson, Kathy",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B43">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Ford, Victor">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Ford, Victor">
       <formula>NOT(ISERROR(SEARCH("Ford, Victor",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Flores, Tia">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Flores, Tia">
       <formula>NOT(ISERROR(SEARCH("Flores, Tia",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Davis, William">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Davis, William">
       <formula>NOT(ISERROR(SEARCH("Davis, William",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Counts, Elizabeth">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Counts, Elizabeth">
       <formula>NOT(ISERROR(SEARCH("Counts, Elizabeth",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Brennan, Michael">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Brennan, Michael">
       <formula>NOT(ISERROR(SEARCH("Brennan, Michael",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Altman, Zoey">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Altman, Zoey">
       <formula>NOT(ISERROR(SEARCH("Altman, Zoey",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Jenny">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Jenny">
       <formula>NOT(ISERROR(SEARCH("Jenny",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Albertson, Kathy">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Albertson, Kathy">
       <formula>NOT(ISERROR(SEARCH("Albertson, Kathy",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28633,1200 +28052,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59930D47-9C7B-438F-BFB7-103FCD14128C}">
-  <dimension ref="B3:P15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="16" width="12.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF(salesperson,Sheet3!C3)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B6)</f>
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D15" si="0">SUMIFS(January,salesperson,name,product,B6)</f>
-        <v>12000</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E15" si="1">SUMIFS(February,salesperson,name,product,B6)</f>
-        <v>18140</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F15" si="2">SUMIFS(March,salesperson,name,product,B6)</f>
-        <v>15350</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G15" si="3">SUMIFS(April,salesperson,name,product,B6)</f>
-        <v>13280</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H15" si="4">SUMIFS(May,salesperson,name,product,B6)</f>
-        <v>18190</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I15" si="5">SUMIFS(June,salesperson,name,product,B6)</f>
-        <v>15030</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J15" si="6">SUMIFS(July,salesperson,name,product,B6)</f>
-        <v>12830</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K15" si="7">SUMIFS(August,salesperson,name,product,B6)</f>
-        <v>21900</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L15" si="8">SUMIFS(September,salesperson,name,product,B6)</f>
-        <v>18630</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M15" si="9">SUMIFS(October,salesperson,name,product,B6)</f>
-        <v>12140</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N15" si="10">SUMIFS(November,salesperson,name,product,B6)</f>
-        <v>11360</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:O15" si="11">SUMIFS(December,salesperson,name,product,B6)</f>
-        <v>16980</v>
-      </c>
-      <c r="P6">
-        <f>SUM(D6:O6)</f>
-        <v>185830</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B7)</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>3220</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>2550</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>4310</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>5670</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>2100</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="7"/>
-        <v>5560</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="8"/>
-        <v>4920</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="9"/>
-        <v>3000</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="10"/>
-        <v>2290</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="11"/>
-        <v>3960</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ref="P7:P15" si="12">SUM(D7:O7)</f>
-        <v>44480</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B8)</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5900</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>7250</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>8680</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>8070</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>6410</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>5180</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="6"/>
-        <v>7620</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="7"/>
-        <v>7150</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="8"/>
-        <v>5630</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="9"/>
-        <v>5880</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="10"/>
-        <v>6260</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="11"/>
-        <v>7410</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="12"/>
-        <v>81440</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B11)</f>
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>17950</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>20260</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>17870</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>15760</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>15810</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>13350</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="6"/>
-        <v>12280</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="7"/>
-        <v>14710</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="8"/>
-        <v>16390</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="9"/>
-        <v>14990</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="10"/>
-        <v>14680</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="11"/>
-        <v>16700</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="12"/>
-        <v>190750</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B13)</f>
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>12450</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>16120</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>12190</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>11370</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>13070</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
-        <v>10210</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>14600</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="7"/>
-        <v>13420</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="8"/>
-        <v>12970</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="9"/>
-        <v>9390</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="10"/>
-        <v>13140</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="11"/>
-        <v>11970</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="12"/>
-        <v>150900</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B14)</f>
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>11050</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>15150</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>14240</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>9290</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>12190</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="5"/>
-        <v>10800</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>13320</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>14290</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="8"/>
-        <v>11910</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="9"/>
-        <v>10920</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="10"/>
-        <v>9970</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="11"/>
-        <v>10930</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="12"/>
-        <v>144060</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <f>COUNTIFS(salesperson,name,product,Sheet3!B15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B6:B15">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Laptop">
-      <formula>NOT(ISERROR(SEARCH("Laptop",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Headset">
-      <formula>NOT(ISERROR(SEARCH("Headset",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Cable">
-      <formula>NOT(ISERROR(SEARCH("Cable",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="USB">
-      <formula>NOT(ISERROR(SEARCH("USB",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="CPU">
-      <formula>NOT(ISERROR(SEARCH("CPU",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" text="CPU">
-      <formula>NOT(ISERROR(SEARCH("CPU",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Mouse">
-      <formula>NOT(ISERROR(SEARCH("Mouse",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Keyboard">
-      <formula>NOT(ISERROR(SEARCH("Keyboard",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Charger">
-      <formula>NOT(ISERROR(SEARCH("Charger",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Calculator">
-      <formula>NOT(ISERROR(SEARCH("Calculator",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Mobile Phone">
-      <formula>NOT(ISERROR(SEARCH("Mobile Phone",B6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Laptop ">
-      <formula>NOT(ISERROR(SEARCH("Laptop ",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70809CAE-32FE-4E1A-A688-E2D119224CB7}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$5:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7A58D9-AAC9-4467-900B-C6A5426948D2}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="7" width="18.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="38">
-        <v>78900</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(F8),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="38">
-        <v>36400</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="str">
-        <f t="shared" ref="G9:G16" ca="1" si="0">IFERROR(_xlfn.FORMULATEXT(F9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="38">
-        <v>36700</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="38">
-        <v>35000</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="38">
-        <v>13000</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="38">
-        <v>8500</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="45">
-        <v>10200</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46">
-        <v>23600</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="48">
-        <v>90700</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="45">
-        <v>7500</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="45">
-        <v>17500</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="45">
-        <v>8500</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="45">
-        <v>56000</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="51">
-        <v>8100</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30">
-        <f>COUNTA(B8:B21)</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="30">
-        <f>SMALL(C8:C21,2)</f>
-        <v>8100</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="42">
-        <f>COUNTIF($B$10:$B$23,A25)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="29">
-        <f>SUMIF($B$10:$B$23,A25,$D$10:$D$23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="42">
-        <f t="shared" ref="B26:B28" si="1">COUNTIF($B$10:$B$23,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="29">
-        <f t="shared" ref="C26:C28" si="2">SUMIF($B$10:$B$23,A26,$D$10:$D$23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B7:B21">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C21">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="0" priority="3" rank="4"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>